--- a/tests/testthat/mtmk12forVer13/Chapter06LRA.xlsx
+++ b/tests/testthat/mtmk12forVer13/Chapter06LRA.xlsx
@@ -26,7 +26,7 @@
     <t>Analysis Date</t>
   </si>
   <si>
-    <t>Thu 13 Jul 2023 10:36:43</t>
+    <t>Mon 17 Jul 2023 11:11:07</t>
   </si>
   <si>
     <t>N of Items</t>
@@ -134,7 +134,7 @@
     <t>outputdist</t>
   </si>
   <si>
-    <t>Transpose[Join[{{"Item", "Item01", "Item02", "Item03", "Item04", "Item05", "Item06", "Item07", "Item08", "Item09", "Item10", "Item11", "Item12", "Item13", "Item14", "Item15"}, {"Number of Respondents", 500, 500, 500, 500, 500, 500, 500, 500, 500, 500, 500, 500, 500, 500, 500}, {"Correct Response Rate", 0.746, 0.754, 0.726, 0.776, 0.804, 0.864, 0.716, 0.588, 0.364, 0.662, 0.286, 0.274, 0.634, 0.764, 0.706}, {"Item Threshold", -0.6619550962881617, -0.6871312867954693, -0.6007597742493189, -0.758753544504371, -0.8559959854926822, -1.098468420339863, -0.5709994731129874, -0.22240322692720624, 0.3477872042786274, -0.4179276716694819, 0.5651084520065837, 0.6007597742493189, -0.34246630146539064, -0.7192287304399239, -0.5417365601128167}, {"Item-Total Correlation", 0.3746480997785672, 0.39320458581499507, 0.32130029988631703, 0.502823899520702, 0.329053854171997, 0.3768598492052689, 0.483067171979553, 0.4052151601002188, 0.22482031165466662, 0.31444557377460874, 0.45508093046361264, 0.467783947980773, 0.4712502114789127, 0.48484126159196483, 0.4127746689297761}}, {{"IRP 1", 0.5952085813018465, 0.5377881703371805, 0.608142361881092, 0.5019234281692256, 0.6848187705769775, 0.6935570020768268, 0.44276175352918906, 0.36512256825469436, 0.3320777576889085, 0.5349634522220428, 0.0740406011471646, 0.06923019733282798, 0.3747346223892594, 0.5188794856975795, 0.4805106659265567}, {"IRP 2", 0.6393329176450167, 0.6395498334911985, 0.6242554070456151, 0.6336915366554026, 0.7490045490182081, 0.7918406943411793, 0.5460468566162271, 0.4683802114185665, 0.3227344147805943, 0.5827481792620999, 0.07770781498577596, 0.09870312976968305, 0.5089689555094132, 0.6044133599667562, 0.5864752799132814}, {"IRP 3", 0.7133138758142809, 0.7643294991216165, 0.6842943184595697, 0.7754607352900547, 0.79378867050476, 0.8964756070630534, 0.6974285208291537, 0.6005493809189081, 0.30840402064359174, 0.6639780869252503, 0.12582150146748797, 0.15300221506862113, 0.6665579014783901, 0.7246024271145306, 0.7089649041529285}, {"IRP 4", 0.783580986573662, 0.8548038740040246, 0.7644679586300839, 0.8787179409540201, 0.8319621956293394, 0.9562676027359983, 0.8351082449787537, 0.6827414594086398, 0.3182035040370458, 0.7233831589973174, 0.2678807072038155, 0.23926787587949244, 0.7424107964291984, 0.8512707375311099, 0.802331254150952}, {"IRP 5", 0.8461217687003552, 0.8876436382601683, 0.8184022046127879, 0.9426404884894812, 0.8729621831059472, 0.9627854610573536, 0.8983516438278768, 0.7174610224612815, 0.38712221735211594, 0.7342188486155544, 0.47880190860078176, 0.4055599725809597, 0.7697520650287616, 0.9363442243639881, 0.8461614022138635}, {"IRP 6", 0.8948311885249668, 0.8894760650872167, 0.8506027163522829, 0.9726374544867818, 0.9092969424868295, 0.9436602801629312, 0.916586944950187, 0.7347490520285256, 0.4671809227232604, 0.7486617406341153, 0.6249192792252878, 0.593942159706049, 0.7920537418615251, 0.9711361906946874, 0.8598558769072153}}, Transpose[], {{"Log-Likelihood(Benchmark Model)", -240.18961141245262, -235.4363635200375, -260.90642155637437, -192.07180243393628, -206.53721476503648, -153.93971690854093, -228.37875378811484, -293.22518376946607, -300.4923376733499, -288.19835566954333, -224.0854868165807, -214.79668883857536, -262.0306953126549, -204.9528009589729, -254.7636896369505}, {"Log-Likelihood(Null Model)", -283.3432328015146, -278.9486319301941, -293.59812763229905, -265.9617979500293, -247.4031907743613, -198.81736523554355, -298.34549199806077, -338.7888009406459, -327.84218653680347, -319.8496782370727, -299.2652870863921, -293.59812763229905, -328.3959150197982, -273.212285134245, -302.84692895496016}, {"Chi-square(Null Model)", 86.30724277812396, 87.02453682031319, 65.38341215184937, 147.779991032186, 81.73195201864962, 89.75529665400524, 139.93347641989186, 91.12723434235966, 54.699697726907175, 63.3026451350587, 150.35960053962282, 157.60287758744738, 132.7304394142866, 136.51896835054424, 96.16647863601935}, {"DF(Null Model)", 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13}, {"Log-Likelihood(Analysis Model)", -264.98276974568176, -252.08452133733607, -282.03828160670525, -211.0545218436984, -235.91271859676593, -172.17899044796562, -251.7384242592472, -314.92443215666475, -322.95728491419493, -310.66386413557245, -241.0323065261993, -241.20147285140163, -295.1594401295795, -223.0781671932839, -273.1451048894237}, {"Chi-square(Analysis Model)", 49.58631666645829, 33.296315634597136, 42.26372010066177, 37.96543881952425, 58.75100766345889, 36.478547078849374, 46.71934094226475, 43.39849677439736, 44.9298944816901, 44.93101693205824, 33.89363941923722, 52.80956802565254, 66.2574896338491, 36.250732468622004, 36.76283050494641}, {"DF(Analysis Model)", 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8}, {"NFI", 0.42546749183109367, 0.6173916362996932, 0.3536017973105072, 0.7430948631519709, 0.2811745441971939, 0.5935777782622753, 0.6661317782024068, 0.5237593120476831, 0.17860799330178456, 0.2902189657920907, 0.774582804838554, 0.664920026626096, 0.5008116455710505, 0.7344637678806669, 0.6177167862817344}, {"RFI", 0.0663846742255273, 0.37826140898700134, 0, 0.5825291526219528, 0, 0.33956388967619744, 0.45746413957891086, 0.22610888207748514, 0, 0, 0.6336970578626502, 0.45549504326740586, 0.18881892405295708, 0.5685036228060838, 0.3787897777078184}, {"IFI", 0.46893396841606194, 0.679892895897433, 0.40289852388017133, 0.7856242613964373, 0.3116822995460363, 0.6516611370224391, 0.7065237573287582, 0.5741648684159444, 0.20920484972621067, 0.3322016181709526, 0.8181110418890909, 0.7004765633638297, 0.5329328597941562, 0.7801823899522271, 0.6737668221537012}, {"TLI", 0.07815705485569058, 0.44469071105433455, 0, 0.6387161201836062, 0, 0.3970756283864173, 0.5043157187072824, 0.26373232404045743, 0, 0, 0.6936714733374397, 0.49644468176194645, 0.20932036065250859, 0.628336919628195, 0.4379995361461052}, {"CFI", 0.4327120337573479, 0.6582712068026675, 0.3459051502537124, 0.7776714585745269, 0.26160968555515207, 0.6289696174685645, 0.6949635192044814, 0.5469121994095123, 0.11438460001448192, 0.2658235599161569, 0.8114901374384245, 0.6901198041611978, 0.5134279142476976, 0.7712842582327354, 0.6541535607052955}, {"RMSEA", 0.1020657336945352, 0.07960372110320117, 0.09264500103945514, 0.08663932392268896, 0.1127527306649801, 0.08446244478388062, 0.0984846876573822, 0.09416665498690173, 0.09618199192970406, 0.09618345360043783, 0.08053808180016087, 0.10594735338739103, 0.12080380593142465, 0.08412393708533246, 0.08488296567604435}, {"AIC", 33.58631666645829, 17.296315634597136, 26.26372010066177, 21.965438819524252, 42.75100766345889, 20.478547078849374, 30.71934094226475, 27.39849677439736, 28.9298944816901, 28.93101693205824, 17.893639419237218, 36.80956802565254, 50.257489633849104, 20.250732468622004, 20.762830504946407}, {"CAIC", -0.1465321422206287, -16.43653317408178, -7.469128708017145, -11.767409989154665, 9.018158854779976, -13.254301729829542, -3.013507866414166, -6.334352034281558, -4.802954326988818, -4.801831876620675, -15.839209389441699, 3.076719216973622, 16.524640825170188, -13.482116340056912, -12.970018303732509}, {"BIC", -0.13054812091924362, -16.420549152780396, -7.45314468671576, -11.75142596785328, 9.034142876081361, -13.238317708528157, -2.997523845112781, -6.318368012980173, -4.786970305687433, -4.78584785531929, -15.823225368140314, 3.092703238275007, 16.540624846471573, -13.466132318755527, -12.954034282431124}}]]</t>
+    <t>Transpose[Join[{{"Item", "Item01", "Item02", "Item03", "Item04", "Item05", "Item06", "Item07", "Item08", "Item09", "Item10", "Item11", "Item12", "Item13", "Item14", "Item15"}, {"Number of Respondents", 500, 500, 500, 500, 500, 500, 500, 500, 500, 500, 500, 500, 500, 500, 500}, {"Correct Response Rate", 0.746, 0.754, 0.726, 0.776, 0.804, 0.864, 0.716, 0.588, 0.364, 0.662, 0.286, 0.274, 0.634, 0.764, 0.706}, {"Item Threshold", -0.6619550962881617, -0.6871312867954693, -0.6007597742493189, -0.758753544504371, -0.8559959854926822, -1.098468420339863, -0.5709994731129874, -0.22240322692720624, 0.3477872042786274, -0.4179276716694819, 0.5651084520065837, 0.6007597742493189, -0.34246630146539064, -0.7192287304399239, -0.5417365601128167}, {"Item-Total Correlation", 0.37464809977856733, 0.39320458581499584, 0.3213002998863171, 0.5028238995207028, 0.32905385417199745, 0.3768598492052685, 0.4830671719795533, 0.4052151601002186, 0.22482031165466698, 0.3144455737746086, 0.45508093046361303, 0.4677839479807731, 0.47125021147891244, 0.48484126159196433, 0.41277466892977605}}, {{"IRP 1", 0.5952085813018465, 0.5377881703371805, 0.608142361881092, 0.5019234281692256, 0.6848187705769775, 0.6935570020768268, 0.44276175352918906, 0.36512256825469436, 0.3320777576889085, 0.5349634522220428, 0.0740406011471646, 0.06923019733282798, 0.3747346223892594, 0.5188794856975795, 0.4805106659265567}, {"IRP 2", 0.6393329176450167, 0.6395498334911985, 0.6242554070456151, 0.6336915366554026, 0.7490045490182081, 0.7918406943411793, 0.5460468566162271, 0.4683802114185665, 0.3227344147805943, 0.5827481792620999, 0.07770781498577596, 0.09870312976968305, 0.5089689555094132, 0.6044133599667562, 0.5864752799132814}, {"IRP 3", 0.7133138758142809, 0.7643294991216165, 0.6842943184595697, 0.7754607352900547, 0.79378867050476, 0.8964756070630534, 0.6974285208291537, 0.6005493809189081, 0.30840402064359174, 0.6639780869252503, 0.12582150146748797, 0.15300221506862113, 0.6665579014783901, 0.7246024271145306, 0.7089649041529285}, {"IRP 4", 0.783580986573662, 0.8548038740040246, 0.7644679586300839, 0.8787179409540201, 0.8319621956293394, 0.9562676027359983, 0.8351082449787537, 0.6827414594086398, 0.3182035040370458, 0.7233831589973174, 0.2678807072038155, 0.23926787587949244, 0.7424107964291984, 0.8512707375311099, 0.802331254150952}, {"IRP 5", 0.8461217687003552, 0.8876436382601683, 0.8184022046127879, 0.9426404884894812, 0.8729621831059472, 0.9627854610573536, 0.8983516438278768, 0.7174610224612815, 0.38712221735211594, 0.7342188486155544, 0.47880190860078176, 0.4055599725809597, 0.7697520650287616, 0.9363442243639881, 0.8461614022138635}, {"IRP 6", 0.8948311885249668, 0.8894760650872167, 0.8506027163522829, 0.9726374544867818, 0.9092969424868295, 0.9436602801629312, 0.916586944950187, 0.7347490520285256, 0.4671809227232604, 0.7486617406341153, 0.6249192792252878, 0.593942159706049, 0.7920537418615251, 0.9711361906946874, 0.8598558769072153}}, Transpose[], {{"Log-Likelihood(Benchmark Model)", -240.18961141245262, -235.4363635200375, -260.90642155637437, -192.07180243393628, -206.53721476503648, -153.93971690854093, -228.37875378811484, -293.22518376946607, -300.4923376733499, -288.19835566954333, -224.0854868165807, -214.79668883857536, -262.0306953126549, -204.9528009589729, -254.7636896369505}, {"Log-Likelihood(Null Model)", -283.3432328015146, -278.9486319301941, -293.59812763229905, -265.9617979500293, -247.4031907743613, -198.81736523554355, -298.34549199806077, -338.7888009406459, -327.84218653680347, -319.8496782370727, -299.2652870863921, -293.59812763229905, -328.3959150197982, -273.212285134245, -302.84692895496016}, {"Chi-square(Null Model)", 86.30724277812396, 87.02453682031319, 65.38341215184937, 147.779991032186, 81.73195201864962, 89.75529665400524, 139.93347641989186, 91.12723434235966, 54.699697726907175, 63.3026451350587, 150.35960053962282, 157.60287758744738, 132.7304394142866, 136.51896835054424, 96.16647863601935}, {"DF(Null Model)", 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13}, {"Log-Likelihood(Analysis Model)", -264.98276974568165, -252.08452133733607, -282.03828160670525, -211.05452184369844, -235.91271859676596, -172.17899044796565, -251.7384242592473, -314.92443215666486, -322.95728491419504, -310.66386413557245, -241.0323065261993, -241.2014728514016, -295.1594401295795, -223.0781671932839, -273.1451048894237}, {"Chi-square(Analysis Model)", 49.58631666645806, 33.296315634597136, 42.26372010066177, 37.96543881952431, 58.75100766345895, 36.47854707884943, 46.71934094226492, 43.398496774397586, 44.929894481690326, 44.93101693205824, 33.89363941923722, 52.80956802565248, 66.2574896338491, 36.250732468622004, 36.76283050494641}, {"DF(Analysis Model)", 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8}, {"NFI", 0.42546749183109633, 0.6173916362996932, 0.3536017973105072, 0.7430948631519705, 0.2811745441971931, 0.5935777782622746, 0.6661317782024054, 0.5237593120476807, 0.17860799330178045, 0.2902189657920907, 0.774582804838554, 0.6649200266260962, 0.5008116455710505, 0.7344637678806669, 0.6177167862817344}, {"RFI", 0.06638467422553163, 0.37826140898700134, 0, 0.5825291526219523, 0, 0.33956388967619644, 0.45746413957890886, 0.22610888207748103, 0, 0, 0.6336970578626502, 0.4554950432674064, 0.18881892405295708, 0.5685036228060838, 0.3787897777078184}, {"IFI", 0.46893396841606483, 0.679892895897433, 0.40289852388017133, 0.7856242613964368, 0.31168229954603555, 0.6516611370224383, 0.7065237573287568, 0.5741648684159416, 0.2092048497262058, 0.3322016181709526, 0.8181110418890909, 0.7004765633638301, 0.5329328597941562, 0.7801823899522271, 0.6737668221537012}, {"TLI", 0.07815705485569557, 0.44469071105433455, 0, 0.6387161201836056, 0, 0.3970756283864161, 0.5043157187072802, 0.26373232404045266, 0, 0, 0.6936714733374397, 0.4964446817619471, 0.20932036065250859, 0.628336919628195, 0.4379995361461052}, {"CFI", 0.432712033757351, 0.6582712068026675, 0.3459051502537124, 0.7776714585745265, 0.2616096855551513, 0.6289696174685637, 0.6949635192044801, 0.5469121994095094, 0.11438460001447637, 0.2658235599161569, 0.8114901374384245, 0.6901198041611982, 0.5134279142476976, 0.7712842582327354, 0.6541535607052955}, {"RMSEA", 0.10206573369453492, 0.07960372110320117, 0.09264500103945514, 0.08663932392268904, 0.11275273066498015, 0.08446244478388071, 0.09848468765738243, 0.09416665498690202, 0.09618199192970435, 0.09618345360043783, 0.08053808180016087, 0.10594735338739097, 0.12080380593142465, 0.08412393708533246, 0.08488296567604435}, {"AIC", 33.58631666645806, 17.296315634597136, 26.26372010066177, 21.96543881952431, 42.75100766345895, 20.47854707884943, 30.71934094226492, 27.398496774397586, 28.929894481690326, 28.93101693205824, 17.893639419237218, 36.80956802565248, 50.257489633849104, 20.250732468622004, 20.762830504946407}, {"CAIC", -0.1465321422208561, -16.43653317408178, -7.469128708017145, -11.767409989154608, 9.018158854780033, -13.254301729829486, -3.0135078664139954, -6.334352034281331, -4.802954326988591, -4.801831876620675, -15.839209389441699, 3.076719216973565, 16.524640825170188, -13.482116340056912, -12.970018303732509}, {"BIC", -0.130548120919471, -16.420549152780396, -7.45314468671576, -11.751425967853223, 9.034142876081418, -13.2383177085281, -2.9975238451126103, -6.3183680129799455, -4.7869703056872055, -4.78584785531929, -15.823225368140314, 3.09270323827495, 16.540624846471573, -13.466132318755527, -12.954034282431124}}]]</t>
   </si>
   <si>
     <t>Student</t>
@@ -1887,7 +1887,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>664.2943551462674</v>
+        <v>664.2943551462679</v>
       </c>
     </row>
     <row r="21">
@@ -1903,7 +1903,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>0.5796732912431406</v>
+        <v>0.5796732912431404</v>
       </c>
     </row>
     <row r="23">
@@ -1911,7 +1911,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>0.31696909827010356</v>
+        <v>0.3169690982701031</v>
       </c>
     </row>
     <row r="24">
@@ -1919,7 +1919,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>0.6273038438172329</v>
+        <v>0.6273038438172325</v>
       </c>
     </row>
     <row r="25">
@@ -1927,7 +1927,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>0.36158286335014866</v>
+        <v>0.3615828633501481</v>
       </c>
     </row>
     <row r="26">
@@ -1935,7 +1935,7 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>0.6071279159077838</v>
+        <v>0.6071279159077835</v>
       </c>
     </row>
     <row r="27">
@@ -1943,7 +1943,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>0.09534019136728762</v>
+        <v>0.09534019136728766</v>
       </c>
     </row>
     <row r="28">
@@ -1951,7 +1951,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>424.29435514626743</v>
+        <v>424.2943551462679</v>
       </c>
     </row>
     <row r="29">
@@ -1959,7 +1959,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>-81.69837698391632</v>
+        <v>-81.69837698391586</v>
       </c>
     </row>
     <row r="30">
@@ -1967,7 +1967,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>-81.45861666439555</v>
+        <v>-81.4586166643951</v>
       </c>
     </row>
     <row r="31">
@@ -2093,7 +2093,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>0.3194870831889829</v>
@@ -2137,7 +2137,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>0.06418139923822552</v>
@@ -2181,7 +2181,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>0.05225695039849725</v>
@@ -2225,7 +2225,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F5" t="n" s="0">
         <v>0.004038198788288903</v>
@@ -2269,7 +2269,7 @@
         <v>0.4</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F6" t="n" s="0">
         <v>0.5698667812258907</v>
@@ -2313,7 +2313,7 @@
         <v>0.8</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F7" t="n" s="0">
         <v>6.746838575043541E-4</v>
@@ -2357,7 +2357,7 @@
         <v>0.6</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F8" t="n" s="0">
         <v>0.07854148603262542</v>
@@ -2401,7 +2401,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F9" t="n" s="0">
         <v>0.02815854967693025</v>
@@ -2445,7 +2445,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>1.6285013769525452</v>
+        <v>1.6285013769525432</v>
       </c>
       <c r="F10" t="n" s="0">
         <v>2.2065274014310555E-4</v>
@@ -2489,10 +2489,10 @@
         <v>0.6</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>0.10009121145016676</v>
+        <v>0.10009121145016675</v>
       </c>
       <c r="G11" t="n" s="0">
         <v>0.2831785265841426</v>
@@ -2533,7 +2533,7 @@
         <v>0.6</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F12" t="n" s="0">
         <v>0.16629900098504566</v>
@@ -2548,7 +2548,7 @@
         <v>0.20238650583534337</v>
       </c>
       <c r="J12" t="n" s="0">
-        <v>0.05856092130588006</v>
+        <v>0.058560921305880066</v>
       </c>
       <c r="K12" t="n" s="0">
         <v>0.013109025152156322</v>
@@ -2577,7 +2577,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F13" t="n" s="0">
         <v>0.22471431612787768</v>
@@ -2621,7 +2621,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F14" t="n" s="0">
         <v>2.7848905837605804E-4</v>
@@ -2665,7 +2665,7 @@
         <v>0.8</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F15" t="n" s="0">
         <v>0.0011517033866023387</v>
@@ -2709,7 +2709,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F16" t="n" s="0">
         <v>0.7030169680660708</v>
@@ -2753,7 +2753,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F17" t="n" s="0">
         <v>0.7333764022674936</v>
@@ -2797,7 +2797,7 @@
         <v>0.8</v>
       </c>
       <c r="E18" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F18" t="n" s="0">
         <v>0.003484024162923847</v>
@@ -2841,7 +2841,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F19" t="n" s="0">
         <v>0.5744810273441098</v>
@@ -2885,7 +2885,7 @@
         <v>0.8</v>
       </c>
       <c r="E20" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F20" t="n" s="0">
         <v>0.0028349819956191985</v>
@@ -2929,7 +2929,7 @@
         <v>0.4</v>
       </c>
       <c r="E21" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F21" t="n" s="0">
         <v>0.637379952065324</v>
@@ -2944,7 +2944,7 @@
         <v>0.017733804992334113</v>
       </c>
       <c r="J21" t="n" s="0">
-        <v>0.006733890865811932</v>
+        <v>0.006733890865811934</v>
       </c>
       <c r="K21" t="n" s="0">
         <v>0.0033901547521561623</v>
@@ -2973,7 +2973,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E22" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F22" t="n" s="0">
         <v>3.1173856330237864E-4</v>
@@ -3017,7 +3017,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E23" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F23" t="n" s="0">
         <v>0.4414522525323527</v>
@@ -3061,7 +3061,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E24" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F24" t="n" s="0">
         <v>0.010551396181200358</v>
@@ -3105,7 +3105,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E25" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F25" t="n" s="0">
         <v>0.05768408069170755</v>
@@ -3149,7 +3149,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E26" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F26" t="n" s="0">
         <v>0.07432796227806464</v>
@@ -3193,7 +3193,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E27" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F27" t="n" s="0">
         <v>0.6251127338319422</v>
@@ -3237,7 +3237,7 @@
         <v>0.6</v>
       </c>
       <c r="E28" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F28" t="n" s="0">
         <v>0.05336699604787284</v>
@@ -3281,7 +3281,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E29" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F29" t="n" s="0">
         <v>0.00989264362789421</v>
@@ -3325,7 +3325,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E30" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F30" t="n" s="0">
         <v>0.00989264362789421</v>
@@ -3369,7 +3369,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="E31" t="n" s="0">
-        <v>-2.127267481332846</v>
+        <v>-2.1272674813328494</v>
       </c>
       <c r="F31" t="n" s="0">
         <v>0.7694483407855262</v>
@@ -3413,7 +3413,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E32" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F32" t="n" s="0">
         <v>0.7264618510728866</v>
@@ -3457,7 +3457,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E33" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F33" t="n" s="0">
         <v>0.0043830657226222565</v>
@@ -3501,7 +3501,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E34" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F34" t="n" s="0">
         <v>0.6364917933344375</v>
@@ -3545,7 +3545,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E35" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F35" t="n" s="0">
         <v>0.5021782935962584</v>
@@ -3589,7 +3589,7 @@
         <v>1.0</v>
       </c>
       <c r="E36" t="n" s="0">
-        <v>2.0040782627810843</v>
+        <v>2.004078262781082</v>
       </c>
       <c r="F36" t="n" s="0">
         <v>1.4219477924493914E-5</v>
@@ -3601,7 +3601,7 @@
         <v>0.002593063040735976</v>
       </c>
       <c r="I36" t="n" s="0">
-        <v>0.0340152338314141</v>
+        <v>0.03401523383141411</v>
       </c>
       <c r="J36" t="n" s="0">
         <v>0.2353666622141355</v>
@@ -3633,7 +3633,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E37" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F37" t="n" s="0">
         <v>0.21012418451361545</v>
@@ -3677,7 +3677,7 @@
         <v>0.8</v>
       </c>
       <c r="E38" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F38" t="n" s="0">
         <v>0.0057691330573044755</v>
@@ -3721,7 +3721,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E39" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F39" t="n" s="0">
         <v>0.011830238610622497</v>
@@ -3765,7 +3765,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E40" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F40" t="n" s="0">
         <v>0.24427055878007423</v>
@@ -3809,7 +3809,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E41" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F41" t="n" s="0">
         <v>0.009977505788619874</v>
@@ -3853,7 +3853,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E42" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F42" t="n" s="0">
         <v>0.007527103377271677</v>
@@ -3897,7 +3897,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="E43" t="n" s="0">
-        <v>1.6285013769525452</v>
+        <v>1.6285013769525432</v>
       </c>
       <c r="F43" t="n" s="0">
         <v>3.593335978981143E-5</v>
@@ -3941,7 +3941,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E44" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F44" t="n" s="0">
         <v>0.04855261123673004</v>
@@ -3985,7 +3985,7 @@
         <v>0.6</v>
       </c>
       <c r="E45" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F45" t="n" s="0">
         <v>0.14586679007771852</v>
@@ -4029,7 +4029,7 @@
         <v>0.8</v>
       </c>
       <c r="E46" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F46" t="n" s="0">
         <v>0.008820638576835176</v>
@@ -4073,7 +4073,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E47" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F47" t="n" s="0">
         <v>0.023822412707972432</v>
@@ -4117,7 +4117,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E48" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F48" t="n" s="0">
         <v>0.08355988875411809</v>
@@ -4161,7 +4161,7 @@
         <v>0.8</v>
       </c>
       <c r="E49" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F49" t="n" s="0">
         <v>3.321202404667143E-4</v>
@@ -4205,7 +4205,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E50" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F50" t="n" s="0">
         <v>0.013698251137723903</v>
@@ -4249,7 +4249,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E51" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F51" t="n" s="0">
         <v>1.3826506857985536E-4</v>
@@ -4293,7 +4293,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E52" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F52" t="n" s="0">
         <v>0.002074224543637228</v>
@@ -4337,7 +4337,7 @@
         <v>0.8</v>
       </c>
       <c r="E53" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F53" t="n" s="0">
         <v>0.002628786096247617</v>
@@ -4381,7 +4381,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E54" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F54" t="n" s="0">
         <v>0.049994280832585294</v>
@@ -4425,7 +4425,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E55" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F55" t="n" s="0">
         <v>0.0024511487138960493</v>
@@ -4469,7 +4469,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E56" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F56" t="n" s="0">
         <v>3.1880183410411863E-4</v>
@@ -4513,7 +4513,7 @@
         <v>0.8</v>
       </c>
       <c r="E57" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F57" t="n" s="0">
         <v>6.746838575043541E-4</v>
@@ -4557,7 +4557,7 @@
         <v>0.6</v>
       </c>
       <c r="E58" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F58" t="n" s="0">
         <v>0.06115988004295621</v>
@@ -4601,7 +4601,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E59" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F59" t="n" s="0">
         <v>0.011830238610622497</v>
@@ -4645,7 +4645,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="E60" t="n" s="0">
-        <v>1.6285013769525452</v>
+        <v>1.6285013769525432</v>
       </c>
       <c r="F60" t="n" s="0">
         <v>1.9778069273362038E-4</v>
@@ -4689,7 +4689,7 @@
         <v>0.8</v>
       </c>
       <c r="E61" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F61" t="n" s="0">
         <v>6.270082169115388E-4</v>
@@ -4733,7 +4733,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="E62" t="n" s="0">
-        <v>1.6285013769525452</v>
+        <v>1.6285013769525432</v>
       </c>
       <c r="F62" t="n" s="0">
         <v>3.593335978981143E-5</v>
@@ -4777,7 +4777,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E63" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F63" t="n" s="0">
         <v>0.04600402268595106</v>
@@ -4821,7 +4821,7 @@
         <v>0.6</v>
       </c>
       <c r="E64" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F64" t="n" s="0">
         <v>0.09250387516178782</v>
@@ -4865,7 +4865,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E65" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F65" t="n" s="0">
         <v>0.019865285269119876</v>
@@ -4909,7 +4909,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E66" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F66" t="n" s="0">
         <v>0.009810003506897378</v>
@@ -4953,7 +4953,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E67" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F67" t="n" s="0">
         <v>0.6734507079820665</v>
@@ -4997,7 +4997,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E68" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F68" t="n" s="0">
         <v>0.5511033722000254</v>
@@ -5041,7 +5041,7 @@
         <v>0.4</v>
       </c>
       <c r="E69" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F69" t="n" s="0">
         <v>0.7275687336568134</v>
@@ -5085,7 +5085,7 @@
         <v>0.8</v>
       </c>
       <c r="E70" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F70" t="n" s="0">
         <v>0.002628786096247617</v>
@@ -5129,7 +5129,7 @@
         <v>0.4</v>
       </c>
       <c r="E71" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F71" t="n" s="0">
         <v>0.4625199408246523</v>
@@ -5173,7 +5173,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E72" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F72" t="n" s="0">
         <v>0.7270548927770453</v>
@@ -5217,7 +5217,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E73" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F73" t="n" s="0">
         <v>0.07742484342302691</v>
@@ -5261,7 +5261,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E74" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F74" t="n" s="0">
         <v>0.026383544463577928</v>
@@ -5305,7 +5305,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E75" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F75" t="n" s="0">
         <v>0.05768408069170755</v>
@@ -5349,7 +5349,7 @@
         <v>0.8</v>
       </c>
       <c r="E76" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F76" t="n" s="0">
         <v>6.270082169115388E-4</v>
@@ -5393,7 +5393,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E77" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F77" t="n" s="0">
         <v>0.14654144604018565</v>
@@ -5437,7 +5437,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E78" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F78" t="n" s="0">
         <v>9.784613274711764E-4</v>
@@ -5481,7 +5481,7 @@
         <v>0.8</v>
       </c>
       <c r="E79" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F79" t="n" s="0">
         <v>0.002628786096247617</v>
@@ -5525,7 +5525,7 @@
         <v>0.8</v>
       </c>
       <c r="E80" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F80" t="n" s="0">
         <v>3.321202404667143E-4</v>
@@ -5569,7 +5569,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="E81" t="n" s="0">
-        <v>-2.127267481332846</v>
+        <v>-2.1272674813328494</v>
       </c>
       <c r="F81" t="n" s="0">
         <v>0.6763565737951669</v>
@@ -5613,7 +5613,7 @@
         <v>0.6</v>
       </c>
       <c r="E82" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F82" t="n" s="0">
         <v>0.08086053711556282</v>
@@ -5657,7 +5657,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E83" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F83" t="n" s="0">
         <v>0.5332308485991901</v>
@@ -5701,7 +5701,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E84" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F84" t="n" s="0">
         <v>0.3308177374139876</v>
@@ -5745,7 +5745,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E85" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F85" t="n" s="0">
         <v>0.313242475588323</v>
@@ -5789,7 +5789,7 @@
         <v>0.8</v>
       </c>
       <c r="E86" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F86" t="n" s="0">
         <v>0.0038287358669074024</v>
@@ -5833,7 +5833,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E87" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F87" t="n" s="0">
         <v>0.4264719321212403</v>
@@ -5877,7 +5877,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E88" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F88" t="n" s="0">
         <v>0.023073461961783066</v>
@@ -5921,7 +5921,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E89" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F89" t="n" s="0">
         <v>0.2904527385584371</v>
@@ -5965,7 +5965,7 @@
         <v>0.8</v>
       </c>
       <c r="E90" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F90" t="n" s="0">
         <v>8.129257909748267E-4</v>
@@ -6009,7 +6009,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E91" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F91" t="n" s="0">
         <v>0.04956191058264942</v>
@@ -6053,7 +6053,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E92" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F92" t="n" s="0">
         <v>0.37393522586590466</v>
@@ -6097,7 +6097,7 @@
         <v>0.4</v>
       </c>
       <c r="E93" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F93" t="n" s="0">
         <v>0.4891820251733625</v>
@@ -6141,7 +6141,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E94" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F94" t="n" s="0">
         <v>0.5128686275086372</v>
@@ -6185,7 +6185,7 @@
         <v>0.8</v>
       </c>
       <c r="E95" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F95" t="n" s="0">
         <v>0.002628786096247617</v>
@@ -6229,7 +6229,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E96" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F96" t="n" s="0">
         <v>0.1355687695855449</v>
@@ -6273,7 +6273,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E97" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F97" t="n" s="0">
         <v>0.0051926743184701404</v>
@@ -6317,7 +6317,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E98" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F98" t="n" s="0">
         <v>0.12337928004181242</v>
@@ -6361,7 +6361,7 @@
         <v>0.4</v>
       </c>
       <c r="E99" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F99" t="n" s="0">
         <v>0.5034801898197964</v>
@@ -6405,7 +6405,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E100" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F100" t="n" s="0">
         <v>0.006343467156161588</v>
@@ -6449,7 +6449,7 @@
         <v>0.8</v>
       </c>
       <c r="E101" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F101" t="n" s="0">
         <v>0.0010683779388426984</v>
@@ -6493,7 +6493,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E102" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F102" t="n" s="0">
         <v>0.13034157053736536</v>
@@ -6537,7 +6537,7 @@
         <v>0.4</v>
       </c>
       <c r="E103" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F103" t="n" s="0">
         <v>0.4302344472349183</v>
@@ -6581,7 +6581,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E104" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F104" t="n" s="0">
         <v>7.322457662408479E-4</v>
@@ -6625,7 +6625,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E105" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F105" t="n" s="0">
         <v>0.565810840627296</v>
@@ -6637,7 +6637,7 @@
         <v>0.06697960348446645</v>
       </c>
       <c r="I105" t="n" s="0">
-        <v>0.005743891504231069</v>
+        <v>0.00574389150423107</v>
       </c>
       <c r="J105" t="n" s="0">
         <v>8.566117509552579E-4</v>
@@ -6669,7 +6669,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E106" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F106" t="n" s="0">
         <v>0.006044461792464002</v>
@@ -6713,13 +6713,13 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E107" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F107" t="n" s="0">
         <v>0.5149696316240724</v>
       </c>
       <c r="G107" t="n" s="0">
-        <v>0.35516287507733474</v>
+        <v>0.3551628750773348</v>
       </c>
       <c r="H107" t="n" s="0">
         <v>0.11324818140972973</v>
@@ -6737,7 +6737,7 @@
         <v>1.0</v>
       </c>
       <c r="M107" t="n" s="0">
-        <v>0.6896773193348292</v>
+        <v>0.6896773193348293</v>
       </c>
       <c r="N107" t="s" s="0">
         <v>58</v>
@@ -6757,7 +6757,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E108" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F108" t="n" s="0">
         <v>0.0787375763139722</v>
@@ -6801,7 +6801,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E109" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F109" t="n" s="0">
         <v>0.002736931202936307</v>
@@ -6845,7 +6845,7 @@
         <v>0.4</v>
       </c>
       <c r="E110" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F110" t="n" s="0">
         <v>0.583145031988419</v>
@@ -6889,7 +6889,7 @@
         <v>0.8</v>
       </c>
       <c r="E111" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F111" t="n" s="0">
         <v>0.001572039280278678</v>
@@ -6933,7 +6933,7 @@
         <v>0.8</v>
       </c>
       <c r="E112" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F112" t="n" s="0">
         <v>0.001572039280278678</v>
@@ -6977,7 +6977,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E113" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F113" t="n" s="0">
         <v>0.00750191923655338</v>
@@ -6992,7 +6992,7 @@
         <v>0.40732201577650856</v>
       </c>
       <c r="J113" t="n" s="0">
-        <v>0.2690415374289892</v>
+        <v>0.2690415374289891</v>
       </c>
       <c r="K113" t="n" s="0">
         <v>0.09674608324136695</v>
@@ -7001,7 +7001,7 @@
         <v>4.0</v>
       </c>
       <c r="M113" t="n" s="0">
-        <v>0.6605131247720433</v>
+        <v>0.6605131247720432</v>
       </c>
       <c r="N113" t="n" s="0">
         <v>0.4525211069502117</v>
@@ -7021,7 +7021,7 @@
         <v>0.4</v>
       </c>
       <c r="E114" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F114" t="n" s="0">
         <v>0.6157173790075002</v>
@@ -7065,7 +7065,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E115" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F115" t="n" s="0">
         <v>0.17409113717477784</v>
@@ -7109,7 +7109,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E116" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F116" t="n" s="0">
         <v>0.7028387437290535</v>
@@ -7153,7 +7153,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E117" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F117" t="n" s="0">
         <v>2.668150077900178E-4</v>
@@ -7197,7 +7197,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E118" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F118" t="n" s="0">
         <v>0.01502806718755725</v>
@@ -7241,7 +7241,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E119" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F119" t="n" s="0">
         <v>0.41945664778208536</v>
@@ -7285,7 +7285,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E120" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F120" t="n" s="0">
         <v>0.5500573662718398</v>
@@ -7329,7 +7329,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E121" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F121" t="n" s="0">
         <v>0.11452611570610456</v>
@@ -7373,7 +7373,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E122" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F122" t="n" s="0">
         <v>0.04632594329153536</v>
@@ -7417,7 +7417,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E123" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F123" t="n" s="0">
         <v>0.3137400877304578</v>
@@ -7461,7 +7461,7 @@
         <v>0.8</v>
       </c>
       <c r="E124" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F124" t="n" s="0">
         <v>0.001341282612085412</v>
@@ -7505,7 +7505,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E125" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F125" t="n" s="0">
         <v>3.1173856330237864E-4</v>
@@ -7549,7 +7549,7 @@
         <v>0.6</v>
       </c>
       <c r="E126" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F126" t="n" s="0">
         <v>0.05020796534623443</v>
@@ -7593,7 +7593,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E127" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F127" t="n" s="0">
         <v>3.178266956787027E-4</v>
@@ -7637,7 +7637,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="E128" t="n" s="0">
-        <v>-2.127267481332846</v>
+        <v>-2.1272674813328494</v>
       </c>
       <c r="F128" t="n" s="0">
         <v>0.6923337519247587</v>
@@ -7681,7 +7681,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E129" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F129" t="n" s="0">
         <v>0.012574082124958509</v>
@@ -7725,7 +7725,7 @@
         <v>0.8</v>
       </c>
       <c r="E130" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F130" t="n" s="0">
         <v>0.021143176924786657</v>
@@ -7769,7 +7769,7 @@
         <v>0.8</v>
       </c>
       <c r="E131" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F131" t="n" s="0">
         <v>0.002526931754265775</v>
@@ -7813,7 +7813,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E132" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F132" t="n" s="0">
         <v>0.04866546287163012</v>
@@ -7857,7 +7857,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E133" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F133" t="n" s="0">
         <v>0.021622545456102416</v>
@@ -7901,7 +7901,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E134" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F134" t="n" s="0">
         <v>0.00989264362789421</v>
@@ -7945,7 +7945,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E135" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F135" t="n" s="0">
         <v>0.668933070024184</v>
@@ -7989,7 +7989,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E136" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F136" t="n" s="0">
         <v>0.4660123666800684</v>
@@ -8033,7 +8033,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E137" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F137" t="n" s="0">
         <v>0.6687128830768034</v>
@@ -8077,7 +8077,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E138" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F138" t="n" s="0">
         <v>0.0012862773219764869</v>
@@ -8121,7 +8121,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E139" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F139" t="n" s="0">
         <v>0.02987099253072326</v>
@@ -8165,7 +8165,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E140" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F140" t="n" s="0">
         <v>0.023118680007727658</v>
@@ -8209,7 +8209,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E141" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F141" t="n" s="0">
         <v>0.012825922517477118</v>
@@ -8253,7 +8253,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E142" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F142" t="n" s="0">
         <v>0.012574082124958509</v>
@@ -8297,7 +8297,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E143" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F143" t="n" s="0">
         <v>0.7172305212595641</v>
@@ -8341,7 +8341,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E144" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F144" t="n" s="0">
         <v>5.39581354635122E-4</v>
@@ -8385,7 +8385,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="E145" t="n" s="0">
-        <v>-2.127267481332846</v>
+        <v>-2.1272674813328494</v>
       </c>
       <c r="F145" t="n" s="0">
         <v>0.6931502748825383</v>
@@ -8429,7 +8429,7 @@
         <v>0.8</v>
       </c>
       <c r="E146" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F146" t="n" s="0">
         <v>0.00593912974403794</v>
@@ -8473,7 +8473,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E147" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F147" t="n" s="0">
         <v>0.32765330003923043</v>
@@ -8517,7 +8517,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E148" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F148" t="n" s="0">
         <v>0.633176904143909</v>
@@ -8561,7 +8561,7 @@
         <v>0.8</v>
       </c>
       <c r="E149" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F149" t="n" s="0">
         <v>0.021143176924786657</v>
@@ -8605,7 +8605,7 @@
         <v>0.6</v>
       </c>
       <c r="E150" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F150" t="n" s="0">
         <v>0.1501305942622227</v>
@@ -8649,7 +8649,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E151" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F151" t="n" s="0">
         <v>1.3826506857985536E-4</v>
@@ -8693,7 +8693,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E152" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F152" t="n" s="0">
         <v>2.423847428450328E-4</v>
@@ -8737,7 +8737,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E153" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F153" t="n" s="0">
         <v>0.02274273272780854</v>
@@ -8781,7 +8781,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="E154" t="n" s="0">
-        <v>1.6285013769525452</v>
+        <v>1.6285013769525432</v>
       </c>
       <c r="F154" t="n" s="0">
         <v>6.625591456064825E-5</v>
@@ -8825,7 +8825,7 @@
         <v>0.6</v>
       </c>
       <c r="E155" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F155" t="n" s="0">
         <v>0.1527654974684308</v>
@@ -8869,7 +8869,7 @@
         <v>0.4</v>
       </c>
       <c r="E156" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F156" t="n" s="0">
         <v>0.48933094188656895</v>
@@ -8913,7 +8913,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E157" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F157" t="n" s="0">
         <v>0.0177636180879008</v>
@@ -8957,7 +8957,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E158" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F158" t="n" s="0">
         <v>0.03910765603074961</v>
@@ -9001,7 +9001,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E159" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F159" t="n" s="0">
         <v>4.895637318424998E-4</v>
@@ -9045,7 +9045,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E160" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F160" t="n" s="0">
         <v>1.034679311339838E-4</v>
@@ -9089,7 +9089,7 @@
         <v>1.0</v>
       </c>
       <c r="E161" t="n" s="0">
-        <v>2.0040782627810843</v>
+        <v>2.004078262781082</v>
       </c>
       <c r="F161" t="n" s="0">
         <v>1.4219477924493914E-5</v>
@@ -9101,7 +9101,7 @@
         <v>0.002593063040735976</v>
       </c>
       <c r="I161" t="n" s="0">
-        <v>0.0340152338314141</v>
+        <v>0.03401523383141411</v>
       </c>
       <c r="J161" t="n" s="0">
         <v>0.2353666622141355</v>
@@ -9133,7 +9133,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E162" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F162" t="n" s="0">
         <v>0.03999483011037055</v>
@@ -9177,7 +9177,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E163" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F163" t="n" s="0">
         <v>0.34421001116572064</v>
@@ -9221,7 +9221,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E164" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F164" t="n" s="0">
         <v>0.4677445785600206</v>
@@ -9265,7 +9265,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E165" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F165" t="n" s="0">
         <v>0.6373717852045234</v>
@@ -9309,7 +9309,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E166" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F166" t="n" s="0">
         <v>0.04250727220857771</v>
@@ -9353,7 +9353,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E167" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F167" t="n" s="0">
         <v>0.5821326107486625</v>
@@ -9397,7 +9397,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E168" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F168" t="n" s="0">
         <v>0.016133550940937397</v>
@@ -9441,7 +9441,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E169" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F169" t="n" s="0">
         <v>0.2503736693654625</v>
@@ -9485,7 +9485,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="E170" t="n" s="0">
-        <v>1.6285013769525452</v>
+        <v>1.6285013769525432</v>
       </c>
       <c r="F170" t="n" s="0">
         <v>2.2312882472390473E-5</v>
@@ -9529,7 +9529,7 @@
         <v>0.4</v>
       </c>
       <c r="E171" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F171" t="n" s="0">
         <v>0.7331173582999779</v>
@@ -9573,7 +9573,7 @@
         <v>0.4</v>
       </c>
       <c r="E172" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F172" t="n" s="0">
         <v>0.4997039044388947</v>
@@ -9617,7 +9617,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E173" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F173" t="n" s="0">
         <v>0.0021988381938310665</v>
@@ -9661,7 +9661,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E174" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F174" t="n" s="0">
         <v>0.014356557409275996</v>
@@ -9705,7 +9705,7 @@
         <v>0.8</v>
       </c>
       <c r="E175" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F175" t="n" s="0">
         <v>0.006810989093014597</v>
@@ -9749,7 +9749,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E176" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F176" t="n" s="0">
         <v>0.4574776791773768</v>
@@ -9793,7 +9793,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E177" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F177" t="n" s="0">
         <v>0.025329671497078782</v>
@@ -9837,7 +9837,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E178" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F178" t="n" s="0">
         <v>0.00989264362789421</v>
@@ -9881,7 +9881,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E179" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F179" t="n" s="0">
         <v>0.15854809855263996</v>
@@ -9925,7 +9925,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E180" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F180" t="n" s="0">
         <v>0.009810003506897378</v>
@@ -9969,7 +9969,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E181" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F181" t="n" s="0">
         <v>0.2676301202820764</v>
@@ -10013,7 +10013,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E182" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F182" t="n" s="0">
         <v>0.4543944312104599</v>
@@ -10057,7 +10057,7 @@
         <v>0.4</v>
       </c>
       <c r="E183" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F183" t="n" s="0">
         <v>0.6967549627687114</v>
@@ -10101,7 +10101,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E184" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F184" t="n" s="0">
         <v>0.012574082124958509</v>
@@ -10145,7 +10145,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E185" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F185" t="n" s="0">
         <v>0.21645536035162558</v>
@@ -10163,7 +10163,7 @@
         <v>0.021522683710325903</v>
       </c>
       <c r="K185" t="n" s="0">
-        <v>0.0037086390314454622</v>
+        <v>0.003708639031445463</v>
       </c>
       <c r="L185" t="n" s="0">
         <v>2.0</v>
@@ -10189,7 +10189,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E186" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F186" t="n" s="0">
         <v>0.0071925548780652285</v>
@@ -10198,7 +10198,7 @@
         <v>0.021825785353148427</v>
       </c>
       <c r="H186" t="n" s="0">
-        <v>0.08263353978871063</v>
+        <v>0.08263353978871066</v>
       </c>
       <c r="I186" t="n" s="0">
         <v>0.22893087654205013</v>
@@ -10233,7 +10233,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E187" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F187" t="n" s="0">
         <v>0.011213154123765988</v>
@@ -10277,7 +10277,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E188" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F188" t="n" s="0">
         <v>0.09722653255200955</v>
@@ -10321,7 +10321,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E189" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F189" t="n" s="0">
         <v>0.01700493602130872</v>
@@ -10365,7 +10365,7 @@
         <v>0.6</v>
       </c>
       <c r="E190" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F190" t="n" s="0">
         <v>0.08508481572531632</v>
@@ -10409,7 +10409,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E191" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F191" t="n" s="0">
         <v>0.10873745004534975</v>
@@ -10453,7 +10453,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E192" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F192" t="n" s="0">
         <v>0.08480743362295624</v>
@@ -10497,7 +10497,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E193" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F193" t="n" s="0">
         <v>0.4327648524526223</v>
@@ -10541,7 +10541,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E194" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F194" t="n" s="0">
         <v>0.06830831159518277</v>
@@ -10585,7 +10585,7 @@
         <v>0.4</v>
       </c>
       <c r="E195" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F195" t="n" s="0">
         <v>0.47880900614223426</v>
@@ -10629,7 +10629,7 @@
         <v>0.2</v>
       </c>
       <c r="E196" t="n" s="0">
-        <v>-2.502844367161385</v>
+        <v>-2.5028443671613885</v>
       </c>
       <c r="F196" t="n" s="0">
         <v>0.8647760951597859</v>
@@ -10673,7 +10673,7 @@
         <v>0.8</v>
       </c>
       <c r="E197" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F197" t="n" s="0">
         <v>0.001341282612085412</v>
@@ -10717,7 +10717,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E198" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F198" t="n" s="0">
         <v>0.014745848012011618</v>
@@ -10761,7 +10761,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E199" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F199" t="n" s="0">
         <v>1.0263182245702466E-4</v>
@@ -10805,7 +10805,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E200" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F200" t="n" s="0">
         <v>0.0872540085143111</v>
@@ -10849,7 +10849,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E201" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F201" t="n" s="0">
         <v>0.010605543999590038</v>
@@ -10893,7 +10893,7 @@
         <v>0.8</v>
       </c>
       <c r="E202" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F202" t="n" s="0">
         <v>0.011652258518161396</v>
@@ -10937,7 +10937,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E203" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F203" t="n" s="0">
         <v>0.006528538553720792</v>
@@ -10981,7 +10981,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E204" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F204" t="n" s="0">
         <v>0.6680273334336425</v>
@@ -11025,7 +11025,7 @@
         <v>0.8</v>
       </c>
       <c r="E205" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F205" t="n" s="0">
         <v>0.002628786096247617</v>
@@ -11069,7 +11069,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E206" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F206" t="n" s="0">
         <v>0.03180481388168533</v>
@@ -11113,7 +11113,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E207" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F207" t="n" s="0">
         <v>0.22728465523130914</v>
@@ -11157,7 +11157,7 @@
         <v>0.8</v>
       </c>
       <c r="E208" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F208" t="n" s="0">
         <v>0.003001695866757986</v>
@@ -11201,7 +11201,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E209" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F209" t="n" s="0">
         <v>0.007527103377271677</v>
@@ -11245,7 +11245,7 @@
         <v>0.6</v>
       </c>
       <c r="E210" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F210" t="n" s="0">
         <v>0.04780395606271434</v>
@@ -11289,7 +11289,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E211" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F211" t="n" s="0">
         <v>0.06934704832547778</v>
@@ -11333,7 +11333,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E212" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F212" t="n" s="0">
         <v>0.013041818948463476</v>
@@ -11377,7 +11377,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="E213" t="n" s="0">
-        <v>1.6285013769525452</v>
+        <v>1.6285013769525432</v>
       </c>
       <c r="F213" t="n" s="0">
         <v>2.2065274014310555E-4</v>
@@ -11421,7 +11421,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E214" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F214" t="n" s="0">
         <v>0.03911469220190485</v>
@@ -11465,7 +11465,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E215" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F215" t="n" s="0">
         <v>0.22433166592970785</v>
@@ -11509,7 +11509,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E216" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F216" t="n" s="0">
         <v>0.09923247709426462</v>
@@ -11553,7 +11553,7 @@
         <v>0.6</v>
       </c>
       <c r="E217" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F217" t="n" s="0">
         <v>0.13599710027961687</v>
@@ -11597,7 +11597,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E218" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F218" t="n" s="0">
         <v>3.1173856330237864E-4</v>
@@ -11641,7 +11641,7 @@
         <v>0.8</v>
       </c>
       <c r="E219" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F219" t="n" s="0">
         <v>0.002971477613874855</v>
@@ -11685,7 +11685,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="E220" t="n" s="0">
-        <v>-2.127267481332846</v>
+        <v>-2.1272674813328494</v>
       </c>
       <c r="F220" t="n" s="0">
         <v>0.7096272405173434</v>
@@ -11729,7 +11729,7 @@
         <v>0.4</v>
       </c>
       <c r="E221" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F221" t="n" s="0">
         <v>0.39967851174464</v>
@@ -11773,7 +11773,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E222" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F222" t="n" s="0">
         <v>0.5476676937149823</v>
@@ -11817,7 +11817,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E223" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F223" t="n" s="0">
         <v>0.012574082124958509</v>
@@ -11861,7 +11861,7 @@
         <v>0.6</v>
       </c>
       <c r="E224" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F224" t="n" s="0">
         <v>0.04513539747359778</v>
@@ -11905,7 +11905,7 @@
         <v>0.6</v>
       </c>
       <c r="E225" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F225" t="n" s="0">
         <v>0.24973660796971706</v>
@@ -11949,7 +11949,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E226" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F226" t="n" s="0">
         <v>0.08780944614696111</v>
@@ -11993,7 +11993,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E227" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F227" t="n" s="0">
         <v>0.0315120370176286</v>
@@ -12008,7 +12008,7 @@
         <v>0.3113190650489074</v>
       </c>
       <c r="J227" t="n" s="0">
-        <v>0.12061950999735639</v>
+        <v>0.1206195099973564</v>
       </c>
       <c r="K227" t="n" s="0">
         <v>0.043996543750861934</v>
@@ -12037,7 +12037,7 @@
         <v>0.6</v>
       </c>
       <c r="E228" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F228" t="n" s="0">
         <v>0.14159113925033706</v>
@@ -12081,7 +12081,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E229" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F229" t="n" s="0">
         <v>0.02419305255185887</v>
@@ -12125,7 +12125,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E230" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F230" t="n" s="0">
         <v>0.5314627232019618</v>
@@ -12169,7 +12169,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E231" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F231" t="n" s="0">
         <v>0.038030684864687574</v>
@@ -12213,7 +12213,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E232" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F232" t="n" s="0">
         <v>0.4412945114065826</v>
@@ -12257,7 +12257,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="E233" t="n" s="0">
-        <v>-2.127267481332846</v>
+        <v>-2.1272674813328494</v>
       </c>
       <c r="F233" t="n" s="0">
         <v>0.693117907038632</v>
@@ -12301,7 +12301,7 @@
         <v>0.8</v>
       </c>
       <c r="E234" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F234" t="n" s="0">
         <v>0.002628786096247617</v>
@@ -12345,7 +12345,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="E235" t="n" s="0">
-        <v>-2.127267481332846</v>
+        <v>-2.1272674813328494</v>
       </c>
       <c r="F235" t="n" s="0">
         <v>0.7591065322812544</v>
@@ -12389,7 +12389,7 @@
         <v>0.6</v>
       </c>
       <c r="E236" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F236" t="n" s="0">
         <v>0.05744471577051626</v>
@@ -12433,7 +12433,7 @@
         <v>0.6</v>
       </c>
       <c r="E237" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F237" t="n" s="0">
         <v>0.09627691415699402</v>
@@ -12477,7 +12477,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E238" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F238" t="n" s="0">
         <v>0.3995877256111124</v>
@@ -12521,7 +12521,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="E239" t="n" s="0">
-        <v>1.6285013769525452</v>
+        <v>1.6285013769525432</v>
       </c>
       <c r="F239" t="n" s="0">
         <v>8.635217661152352E-5</v>
@@ -12565,7 +12565,7 @@
         <v>0.8</v>
       </c>
       <c r="E240" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F240" t="n" s="0">
         <v>0.0030500553812994845</v>
@@ -12609,7 +12609,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E241" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F241" t="n" s="0">
         <v>0.00989264362789421</v>
@@ -12653,7 +12653,7 @@
         <v>0.8</v>
       </c>
       <c r="E242" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F242" t="n" s="0">
         <v>0.002628786096247617</v>
@@ -12697,7 +12697,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E243" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F243" t="n" s="0">
         <v>0.00750191923655338</v>
@@ -12712,7 +12712,7 @@
         <v>0.40732201577650856</v>
       </c>
       <c r="J243" t="n" s="0">
-        <v>0.2690415374289892</v>
+        <v>0.2690415374289891</v>
       </c>
       <c r="K243" t="n" s="0">
         <v>0.09674608324136695</v>
@@ -12721,7 +12721,7 @@
         <v>4.0</v>
       </c>
       <c r="M243" t="n" s="0">
-        <v>0.6605131247720433</v>
+        <v>0.6605131247720432</v>
       </c>
       <c r="N243" t="n" s="0">
         <v>0.4525211069502117</v>
@@ -12741,7 +12741,7 @@
         <v>0.6</v>
       </c>
       <c r="E244" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F244" t="n" s="0">
         <v>0.06332216290919038</v>
@@ -12785,7 +12785,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E245" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F245" t="n" s="0">
         <v>0.21582642830124138</v>
@@ -12829,7 +12829,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E246" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F246" t="n" s="0">
         <v>0.00989264362789421</v>
@@ -12873,7 +12873,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E247" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F247" t="n" s="0">
         <v>0.7756539568423685</v>
@@ -12917,7 +12917,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E248" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F248" t="n" s="0">
         <v>0.0031645956783814544</v>
@@ -12961,7 +12961,7 @@
         <v>1.0</v>
       </c>
       <c r="E249" t="n" s="0">
-        <v>2.0040782627810843</v>
+        <v>2.004078262781082</v>
       </c>
       <c r="F249" t="n" s="0">
         <v>1.4219477924493914E-5</v>
@@ -12973,7 +12973,7 @@
         <v>0.002593063040735976</v>
       </c>
       <c r="I249" t="n" s="0">
-        <v>0.0340152338314141</v>
+        <v>0.03401523383141411</v>
       </c>
       <c r="J249" t="n" s="0">
         <v>0.2353666622141355</v>
@@ -13005,7 +13005,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E250" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F250" t="n" s="0">
         <v>0.1160726499917595</v>
@@ -13049,7 +13049,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="E251" t="n" s="0">
-        <v>1.6285013769525452</v>
+        <v>1.6285013769525432</v>
       </c>
       <c r="F251" t="n" s="0">
         <v>2.2312882472390473E-5</v>
@@ -13093,7 +13093,7 @@
         <v>0.6</v>
       </c>
       <c r="E252" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F252" t="n" s="0">
         <v>0.1810755020602622</v>
@@ -13137,7 +13137,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E253" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F253" t="n" s="0">
         <v>0.27464506207861455</v>
@@ -13181,7 +13181,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E254" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F254" t="n" s="0">
         <v>0.004902112892016864</v>
@@ -13225,7 +13225,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E255" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F255" t="n" s="0">
         <v>0.1103934295351648</v>
@@ -13269,7 +13269,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E256" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F256" t="n" s="0">
         <v>0.004094550050913922</v>
@@ -13313,7 +13313,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E257" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F257" t="n" s="0">
         <v>0.06699526195800767</v>
@@ -13357,7 +13357,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E258" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F258" t="n" s="0">
         <v>0.37516383849465357</v>
@@ -13401,7 +13401,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E259" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F259" t="n" s="0">
         <v>0.6714897179766425</v>
@@ -13445,7 +13445,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E260" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F260" t="n" s="0">
         <v>0.5073554165107091</v>
@@ -13489,7 +13489,7 @@
         <v>0.6</v>
       </c>
       <c r="E261" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F261" t="n" s="0">
         <v>0.039317739272023484</v>
@@ -13533,7 +13533,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E262" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F262" t="n" s="0">
         <v>0.5198826614572942</v>
@@ -13577,7 +13577,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E263" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F263" t="n" s="0">
         <v>0.0021988381938310665</v>
@@ -13621,7 +13621,7 @@
         <v>0.8</v>
       </c>
       <c r="E264" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F264" t="n" s="0">
         <v>0.004420514259454467</v>
@@ -13665,7 +13665,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E265" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F265" t="n" s="0">
         <v>0.43743390796656967</v>
@@ -13709,7 +13709,7 @@
         <v>0.8</v>
       </c>
       <c r="E266" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F266" t="n" s="0">
         <v>0.0011993913702126962</v>
@@ -13753,7 +13753,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E267" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F267" t="n" s="0">
         <v>0.022547437997611663</v>
@@ -13797,7 +13797,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E268" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F268" t="n" s="0">
         <v>0.006925633795208135</v>
@@ -13841,7 +13841,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E269" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F269" t="n" s="0">
         <v>0.22486677341791217</v>
@@ -13885,7 +13885,7 @@
         <v>0.8</v>
       </c>
       <c r="E270" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F270" t="n" s="0">
         <v>4.750491892966411E-4</v>
@@ -13929,7 +13929,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E271" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F271" t="n" s="0">
         <v>0.0993102744019234</v>
@@ -13973,7 +13973,7 @@
         <v>0.8</v>
       </c>
       <c r="E272" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F272" t="n" s="0">
         <v>0.005034410256415283</v>
@@ -14017,7 +14017,7 @@
         <v>0.6</v>
       </c>
       <c r="E273" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F273" t="n" s="0">
         <v>0.08812085006869713</v>
@@ -14061,7 +14061,7 @@
         <v>0.4</v>
       </c>
       <c r="E274" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F274" t="n" s="0">
         <v>0.6301882066516906</v>
@@ -14105,7 +14105,7 @@
         <v>0.6</v>
       </c>
       <c r="E275" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F275" t="n" s="0">
         <v>0.1189712196133696</v>
@@ -14149,7 +14149,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E276" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F276" t="n" s="0">
         <v>0.012710061211113653</v>
@@ -14193,7 +14193,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E277" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F277" t="n" s="0">
         <v>0.0188251239214786</v>
@@ -14237,7 +14237,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E278" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F278" t="n" s="0">
         <v>0.44291790243424434</v>
@@ -14281,7 +14281,7 @@
         <v>0.4</v>
       </c>
       <c r="E279" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F279" t="n" s="0">
         <v>0.587188394767895</v>
@@ -14325,7 +14325,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E280" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F280" t="n" s="0">
         <v>0.03368168346792797</v>
@@ -14369,7 +14369,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E281" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F281" t="n" s="0">
         <v>0.36206992245314873</v>
@@ -14413,7 +14413,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E282" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F282" t="n" s="0">
         <v>0.01511461284060958</v>
@@ -14457,7 +14457,7 @@
         <v>0.8</v>
       </c>
       <c r="E283" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F283" t="n" s="0">
         <v>0.0026755055433511305</v>
@@ -14501,7 +14501,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E284" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F284" t="n" s="0">
         <v>0.3831569828648938</v>
@@ -14545,7 +14545,7 @@
         <v>0.8</v>
       </c>
       <c r="E285" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F285" t="n" s="0">
         <v>0.002628786096247617</v>
@@ -14589,7 +14589,7 @@
         <v>0.6</v>
       </c>
       <c r="E286" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F286" t="n" s="0">
         <v>0.2038904472245093</v>
@@ -14633,7 +14633,7 @@
         <v>0.4</v>
       </c>
       <c r="E287" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F287" t="n" s="0">
         <v>0.6671388758214605</v>
@@ -14642,7 +14642,7 @@
         <v>0.27877982250571015</v>
       </c>
       <c r="H287" t="n" s="0">
-        <v>0.04875678857164913</v>
+        <v>0.04875678857164914</v>
       </c>
       <c r="I287" t="n" s="0">
         <v>0.004798296902961467</v>
@@ -14677,7 +14677,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E288" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F288" t="n" s="0">
         <v>9.166897060437378E-4</v>
@@ -14721,7 +14721,7 @@
         <v>0.6</v>
       </c>
       <c r="E289" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F289" t="n" s="0">
         <v>0.15470138200392097</v>
@@ -14765,7 +14765,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E290" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F290" t="n" s="0">
         <v>5.41567147475104E-4</v>
@@ -14809,7 +14809,7 @@
         <v>1.0</v>
       </c>
       <c r="E291" t="n" s="0">
-        <v>2.0040782627810843</v>
+        <v>2.004078262781082</v>
       </c>
       <c r="F291" t="n" s="0">
         <v>1.4219477924493914E-5</v>
@@ -14821,7 +14821,7 @@
         <v>0.002593063040735976</v>
       </c>
       <c r="I291" t="n" s="0">
-        <v>0.0340152338314141</v>
+        <v>0.03401523383141411</v>
       </c>
       <c r="J291" t="n" s="0">
         <v>0.2353666622141355</v>
@@ -14853,7 +14853,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E292" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F292" t="n" s="0">
         <v>0.02446235426021345</v>
@@ -14897,7 +14897,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="E293" t="n" s="0">
-        <v>1.6285013769525452</v>
+        <v>1.6285013769525432</v>
       </c>
       <c r="F293" t="n" s="0">
         <v>3.593335978981143E-5</v>
@@ -14941,7 +14941,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="E294" t="n" s="0">
-        <v>-2.127267481332846</v>
+        <v>-2.1272674813328494</v>
       </c>
       <c r="F294" t="n" s="0">
         <v>0.8623841994913121</v>
@@ -14985,7 +14985,7 @@
         <v>0.8</v>
       </c>
       <c r="E295" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F295" t="n" s="0">
         <v>3.321202404667143E-4</v>
@@ -15029,7 +15029,7 @@
         <v>0.4</v>
       </c>
       <c r="E296" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F296" t="n" s="0">
         <v>0.7597941963891857</v>
@@ -15073,7 +15073,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E297" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F297" t="n" s="0">
         <v>0.35171962085085057</v>
@@ -15117,7 +15117,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E298" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F298" t="n" s="0">
         <v>0.013059248826546629</v>
@@ -15161,7 +15161,7 @@
         <v>0.8</v>
       </c>
       <c r="E299" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F299" t="n" s="0">
         <v>0.014464335001769212</v>
@@ -15205,7 +15205,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E300" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F300" t="n" s="0">
         <v>0.5913604230666062</v>
@@ -15249,7 +15249,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E301" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F301" t="n" s="0">
         <v>0.013349598200647565</v>
@@ -15293,7 +15293,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E302" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F302" t="n" s="0">
         <v>0.6389878716303121</v>
@@ -15337,7 +15337,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E303" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F303" t="n" s="0">
         <v>1.3332316808137445E-4</v>
@@ -15381,7 +15381,7 @@
         <v>0.6</v>
       </c>
       <c r="E304" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F304" t="n" s="0">
         <v>0.21918667215306012</v>
@@ -15425,7 +15425,7 @@
         <v>0.6</v>
       </c>
       <c r="E305" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F305" t="n" s="0">
         <v>0.2035980387577814</v>
@@ -15469,7 +15469,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E306" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F306" t="n" s="0">
         <v>0.023156896294458943</v>
@@ -15513,7 +15513,7 @@
         <v>0.8</v>
       </c>
       <c r="E307" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F307" t="n" s="0">
         <v>0.008968007283071514</v>
@@ -15557,7 +15557,7 @@
         <v>0.4</v>
       </c>
       <c r="E308" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F308" t="n" s="0">
         <v>0.5522446947505977</v>
@@ -15601,7 +15601,7 @@
         <v>0.8</v>
       </c>
       <c r="E309" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F309" t="n" s="0">
         <v>8.129257909748267E-4</v>
@@ -15645,7 +15645,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E310" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F310" t="n" s="0">
         <v>0.004038198788288903</v>
@@ -15689,7 +15689,7 @@
         <v>0.6</v>
       </c>
       <c r="E311" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F311" t="n" s="0">
         <v>0.1529239259599993</v>
@@ -15733,7 +15733,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E312" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F312" t="n" s="0">
         <v>0.05225695039849725</v>
@@ -15777,7 +15777,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E313" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F313" t="n" s="0">
         <v>0.005868844585392238</v>
@@ -15821,7 +15821,7 @@
         <v>0.8</v>
       </c>
       <c r="E314" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F314" t="n" s="0">
         <v>0.0025903612432557916</v>
@@ -15865,7 +15865,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E315" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F315" t="n" s="0">
         <v>0.43657242178764216</v>
@@ -15909,7 +15909,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E316" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F316" t="n" s="0">
         <v>0.009124774476034818</v>
@@ -15953,7 +15953,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E317" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F317" t="n" s="0">
         <v>0.001500179606616027</v>
@@ -15997,7 +15997,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E318" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F318" t="n" s="0">
         <v>0.0021988381938310665</v>
@@ -16041,7 +16041,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E319" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F319" t="n" s="0">
         <v>0.2555821534754773</v>
@@ -16085,7 +16085,7 @@
         <v>0.4</v>
       </c>
       <c r="E320" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F320" t="n" s="0">
         <v>0.7495538882889422</v>
@@ -16129,7 +16129,7 @@
         <v>0.6</v>
       </c>
       <c r="E321" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F321" t="n" s="0">
         <v>0.06798979052776448</v>
@@ -16173,7 +16173,7 @@
         <v>0.6</v>
       </c>
       <c r="E322" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F322" t="n" s="0">
         <v>0.10918519493881539</v>
@@ -16217,7 +16217,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E323" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F323" t="n" s="0">
         <v>6.674853979386846E-4</v>
@@ -16261,13 +16261,13 @@
         <v>0.6</v>
       </c>
       <c r="E324" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F324" t="n" s="0">
         <v>0.07964201610848805</v>
       </c>
       <c r="G324" t="n" s="0">
-        <v>0.14589127770229937</v>
+        <v>0.14589127770229934</v>
       </c>
       <c r="H324" t="n" s="0">
         <v>0.29855071266572725</v>
@@ -16305,7 +16305,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E325" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F325" t="n" s="0">
         <v>5.39581354635122E-4</v>
@@ -16349,7 +16349,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E326" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F326" t="n" s="0">
         <v>2.7848905837605804E-4</v>
@@ -16393,7 +16393,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E327" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F327" t="n" s="0">
         <v>9.784613274711764E-4</v>
@@ -16437,7 +16437,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E328" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F328" t="n" s="0">
         <v>0.4043736212030076</v>
@@ -16481,7 +16481,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E329" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F329" t="n" s="0">
         <v>0.048192670939325</v>
@@ -16525,7 +16525,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E330" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F330" t="n" s="0">
         <v>0.0042788138141425115</v>
@@ -16569,7 +16569,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E331" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F331" t="n" s="0">
         <v>0.015718207573189542</v>
@@ -16613,7 +16613,7 @@
         <v>0.8</v>
       </c>
       <c r="E332" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F332" t="n" s="0">
         <v>0.001572039280278678</v>
@@ -16657,7 +16657,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E333" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F333" t="n" s="0">
         <v>0.41206214361886456</v>
@@ -16701,7 +16701,7 @@
         <v>0.6</v>
       </c>
       <c r="E334" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F334" t="n" s="0">
         <v>0.16679777459344883</v>
@@ -16745,7 +16745,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E335" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F335" t="n" s="0">
         <v>5.39581354635122E-4</v>
@@ -16789,7 +16789,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E336" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F336" t="n" s="0">
         <v>0.002074224543637228</v>
@@ -16833,7 +16833,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E337" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F337" t="n" s="0">
         <v>0.04250727220857771</v>
@@ -16877,7 +16877,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E338" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F338" t="n" s="0">
         <v>0.11180614774982625</v>
@@ -16921,7 +16921,7 @@
         <v>0.8</v>
       </c>
       <c r="E339" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F339" t="n" s="0">
         <v>0.002986384062524023</v>
@@ -16965,7 +16965,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E340" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F340" t="n" s="0">
         <v>2.7848905837605804E-4</v>
@@ -17009,7 +17009,7 @@
         <v>0.6</v>
       </c>
       <c r="E341" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F341" t="n" s="0">
         <v>0.2120700414350946</v>
@@ -17053,7 +17053,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="E342" t="n" s="0">
-        <v>-2.127267481332846</v>
+        <v>-2.1272674813328494</v>
       </c>
       <c r="F342" t="n" s="0">
         <v>0.7830668289530585</v>
@@ -17097,7 +17097,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E343" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F343" t="n" s="0">
         <v>0.009810003506897378</v>
@@ -17141,7 +17141,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E344" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F344" t="n" s="0">
         <v>0.0315120370176286</v>
@@ -17156,7 +17156,7 @@
         <v>0.3113190650489074</v>
       </c>
       <c r="J344" t="n" s="0">
-        <v>0.12061950999735639</v>
+        <v>0.1206195099973564</v>
       </c>
       <c r="K344" t="n" s="0">
         <v>0.043996543750861934</v>
@@ -17185,7 +17185,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="E345" t="n" s="0">
-        <v>1.6285013769525452</v>
+        <v>1.6285013769525432</v>
       </c>
       <c r="F345" t="n" s="0">
         <v>8.635217661152352E-5</v>
@@ -17229,7 +17229,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E346" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F346" t="n" s="0">
         <v>0.3323298076440589</v>
@@ -17273,7 +17273,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E347" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F347" t="n" s="0">
         <v>0.007527103377271677</v>
@@ -17317,7 +17317,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E348" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F348" t="n" s="0">
         <v>0.025329671497078782</v>
@@ -17361,7 +17361,7 @@
         <v>0.8</v>
       </c>
       <c r="E349" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F349" t="n" s="0">
         <v>9.200468474661347E-4</v>
@@ -17405,7 +17405,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E350" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F350" t="n" s="0">
         <v>0.048192670939325</v>
@@ -17449,7 +17449,7 @@
         <v>0.8</v>
       </c>
       <c r="E351" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F351" t="n" s="0">
         <v>0.002066874370072837</v>
@@ -17493,7 +17493,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E352" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F352" t="n" s="0">
         <v>0.10654193065449735</v>
@@ -17537,7 +17537,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E353" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F353" t="n" s="0">
         <v>0.24949738056296752</v>
@@ -17581,7 +17581,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E354" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F354" t="n" s="0">
         <v>0.03914483314327393</v>
@@ -17625,7 +17625,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E355" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F355" t="n" s="0">
         <v>0.21250514204637597</v>
@@ -17669,7 +17669,7 @@
         <v>0.8</v>
       </c>
       <c r="E356" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F356" t="n" s="0">
         <v>0.0015567053499323015</v>
@@ -17713,7 +17713,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E357" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F357" t="n" s="0">
         <v>4.86409591606014E-4</v>
@@ -17757,7 +17757,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E358" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F358" t="n" s="0">
         <v>0.3960441882634384</v>
@@ -17801,7 +17801,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="E359" t="n" s="0">
-        <v>1.6285013769525452</v>
+        <v>1.6285013769525432</v>
       </c>
       <c r="F359" t="n" s="0">
         <v>6.625591456064825E-5</v>
@@ -17845,7 +17845,7 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="E360" t="n" s="0">
-        <v>-2.8784212529899245</v>
+        <v>-2.8784212529899276</v>
       </c>
       <c r="F360" t="n" s="0">
         <v>0.8675580838558226</v>
@@ -17889,7 +17889,7 @@
         <v>0.6</v>
       </c>
       <c r="E361" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F361" t="n" s="0">
         <v>0.1560475937615418</v>
@@ -17933,7 +17933,7 @@
         <v>0.8</v>
       </c>
       <c r="E362" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F362" t="n" s="0">
         <v>0.002628786096247617</v>
@@ -17977,7 +17977,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E363" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F363" t="n" s="0">
         <v>1.4926331495804007E-4</v>
@@ -18021,7 +18021,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E364" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F364" t="n" s="0">
         <v>0.5961500112480461</v>
@@ -18065,7 +18065,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E365" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F365" t="n" s="0">
         <v>0.025430816222988466</v>
@@ -18109,7 +18109,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E366" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F366" t="n" s="0">
         <v>0.03180481388168533</v>
@@ -18153,13 +18153,13 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E367" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F367" t="n" s="0">
         <v>0.016403303766167887</v>
       </c>
       <c r="G367" t="n" s="0">
-        <v>0.07789822383469514</v>
+        <v>0.07789822383469515</v>
       </c>
       <c r="H367" t="n" s="0">
         <v>0.31271099714661305</v>
@@ -18197,7 +18197,7 @@
         <v>1.0</v>
       </c>
       <c r="E368" t="n" s="0">
-        <v>2.0040782627810843</v>
+        <v>2.004078262781082</v>
       </c>
       <c r="F368" t="n" s="0">
         <v>1.4219477924493914E-5</v>
@@ -18209,7 +18209,7 @@
         <v>0.002593063040735976</v>
       </c>
       <c r="I368" t="n" s="0">
-        <v>0.0340152338314141</v>
+        <v>0.03401523383141411</v>
       </c>
       <c r="J368" t="n" s="0">
         <v>0.2353666622141355</v>
@@ -18241,7 +18241,7 @@
         <v>0.4</v>
       </c>
       <c r="E369" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F369" t="n" s="0">
         <v>0.6051511133808087</v>
@@ -18285,7 +18285,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E370" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F370" t="n" s="0">
         <v>0.07069881832934001</v>
@@ -18329,7 +18329,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E371" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F371" t="n" s="0">
         <v>0.03166788746221806</v>
@@ -18373,7 +18373,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="E372" t="n" s="0">
-        <v>1.6285013769525452</v>
+        <v>1.6285013769525432</v>
       </c>
       <c r="F372" t="n" s="0">
         <v>2.2312882472390473E-5</v>
@@ -18417,7 +18417,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E373" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F373" t="n" s="0">
         <v>0.01809269462208792</v>
@@ -18461,7 +18461,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E374" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F374" t="n" s="0">
         <v>3.1880183410411863E-4</v>
@@ -18505,7 +18505,7 @@
         <v>0.6</v>
       </c>
       <c r="E375" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F375" t="n" s="0">
         <v>0.1921204252785428</v>
@@ -18549,7 +18549,7 @@
         <v>0.6</v>
       </c>
       <c r="E376" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F376" t="n" s="0">
         <v>0.11642401918387735</v>
@@ -18593,7 +18593,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E377" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F377" t="n" s="0">
         <v>0.05225695039849725</v>
@@ -18637,7 +18637,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E378" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F378" t="n" s="0">
         <v>0.05707456455193245</v>
@@ -18681,7 +18681,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E379" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F379" t="n" s="0">
         <v>0.063092164040548</v>
@@ -18725,7 +18725,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="E380" t="n" s="0">
-        <v>1.6285013769525452</v>
+        <v>1.6285013769525432</v>
       </c>
       <c r="F380" t="n" s="0">
         <v>6.625591456064825E-5</v>
@@ -18769,7 +18769,7 @@
         <v>0.8</v>
       </c>
       <c r="E381" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F381" t="n" s="0">
         <v>4.2501533478783314E-4</v>
@@ -18813,7 +18813,7 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="E382" t="n" s="0">
-        <v>-2.8784212529899245</v>
+        <v>-2.8784212529899276</v>
       </c>
       <c r="F382" t="n" s="0">
         <v>0.834888411733695</v>
@@ -18857,7 +18857,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E383" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F383" t="n" s="0">
         <v>0.3864752422163898</v>
@@ -18901,7 +18901,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E384" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F384" t="n" s="0">
         <v>0.2951235070885421</v>
@@ -18945,7 +18945,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E385" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F385" t="n" s="0">
         <v>0.45808609121630056</v>
@@ -18989,7 +18989,7 @@
         <v>0.8</v>
       </c>
       <c r="E386" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F386" t="n" s="0">
         <v>0.001732019692044655</v>
@@ -19033,7 +19033,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E387" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F387" t="n" s="0">
         <v>0.4138499359396957</v>
@@ -19077,7 +19077,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E388" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F388" t="n" s="0">
         <v>0.08368570662207779</v>
@@ -19121,7 +19121,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E389" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F389" t="n" s="0">
         <v>0.401558964289406</v>
@@ -19165,7 +19165,7 @@
         <v>0.8</v>
       </c>
       <c r="E390" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F390" t="n" s="0">
         <v>0.002628786096247617</v>
@@ -19209,7 +19209,7 @@
         <v>0.6</v>
       </c>
       <c r="E391" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F391" t="n" s="0">
         <v>0.09627691415699402</v>
@@ -19253,7 +19253,7 @@
         <v>0.4</v>
       </c>
       <c r="E392" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F392" t="n" s="0">
         <v>0.38588975307788165</v>
@@ -19297,7 +19297,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E393" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F393" t="n" s="0">
         <v>0.43974007396170406</v>
@@ -19341,7 +19341,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E394" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F394" t="n" s="0">
         <v>0.006528538553720792</v>
@@ -19385,7 +19385,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E395" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F395" t="n" s="0">
         <v>0.19226079014415653</v>
@@ -19429,7 +19429,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E396" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F396" t="n" s="0">
         <v>0.03042461538162208</v>
@@ -19473,7 +19473,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E397" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F397" t="n" s="0">
         <v>0.17944918692564862</v>
@@ -19517,7 +19517,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E398" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F398" t="n" s="0">
         <v>0.009601322339741836</v>
@@ -19561,7 +19561,7 @@
         <v>0.8</v>
       </c>
       <c r="E399" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F399" t="n" s="0">
         <v>2.1226726803002472E-4</v>
@@ -19605,7 +19605,7 @@
         <v>0.4</v>
       </c>
       <c r="E400" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F400" t="n" s="0">
         <v>0.6072139192037701</v>
@@ -19649,7 +19649,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E401" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F401" t="n" s="0">
         <v>0.6364917933344375</v>
@@ -19693,7 +19693,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E402" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F402" t="n" s="0">
         <v>0.0012862773219764869</v>
@@ -19737,7 +19737,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E403" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F403" t="n" s="0">
         <v>0.34702045808112303</v>
@@ -19781,7 +19781,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E404" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F404" t="n" s="0">
         <v>0.024299978734671178</v>
@@ -19825,7 +19825,7 @@
         <v>0.8</v>
       </c>
       <c r="E405" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F405" t="n" s="0">
         <v>0.0014507316363301618</v>
@@ -19869,7 +19869,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E406" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F406" t="n" s="0">
         <v>0.07285003095574176</v>
@@ -19913,7 +19913,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E407" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F407" t="n" s="0">
         <v>0.045452617036501344</v>
@@ -19957,7 +19957,7 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="E408" t="n" s="0">
-        <v>-2.8784212529899245</v>
+        <v>-2.8784212529899276</v>
       </c>
       <c r="F408" t="n" s="0">
         <v>0.891310381025821</v>
@@ -20001,7 +20001,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E409" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F409" t="n" s="0">
         <v>0.004902112892016864</v>
@@ -20045,7 +20045,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E410" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F410" t="n" s="0">
         <v>0.20703615545875503</v>
@@ -20089,7 +20089,7 @@
         <v>0.8</v>
       </c>
       <c r="E411" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F411" t="n" s="0">
         <v>0.005023708573157076</v>
@@ -20133,7 +20133,7 @@
         <v>0.8</v>
       </c>
       <c r="E412" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F412" t="n" s="0">
         <v>0.0023641578687182215</v>
@@ -20177,7 +20177,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E413" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F413" t="n" s="0">
         <v>0.06224227361186767</v>
@@ -20221,7 +20221,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E414" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F414" t="n" s="0">
         <v>0.025329671497078782</v>
@@ -20265,7 +20265,7 @@
         <v>0.6</v>
       </c>
       <c r="E415" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F415" t="n" s="0">
         <v>0.2016817378929534</v>
@@ -20309,7 +20309,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E416" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F416" t="n" s="0">
         <v>0.020921952367828654</v>
@@ -20353,7 +20353,7 @@
         <v>1.0</v>
       </c>
       <c r="E417" t="n" s="0">
-        <v>2.0040782627810843</v>
+        <v>2.004078262781082</v>
       </c>
       <c r="F417" t="n" s="0">
         <v>1.4219477924493914E-5</v>
@@ -20365,7 +20365,7 @@
         <v>0.002593063040735976</v>
       </c>
       <c r="I417" t="n" s="0">
-        <v>0.0340152338314141</v>
+        <v>0.03401523383141411</v>
       </c>
       <c r="J417" t="n" s="0">
         <v>0.2353666622141355</v>
@@ -20397,7 +20397,7 @@
         <v>0.6</v>
       </c>
       <c r="E418" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F418" t="n" s="0">
         <v>0.19742475061782236</v>
@@ -20441,7 +20441,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E419" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F419" t="n" s="0">
         <v>5.591599465687778E-5</v>
@@ -20485,7 +20485,7 @@
         <v>0.4</v>
       </c>
       <c r="E420" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F420" t="n" s="0">
         <v>0.7547577799778145</v>
@@ -20529,7 +20529,7 @@
         <v>0.6</v>
       </c>
       <c r="E421" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F421" t="n" s="0">
         <v>0.12656877342469638</v>
@@ -20544,7 +20544,7 @@
         <v>0.20062207696537043</v>
       </c>
       <c r="J421" t="n" s="0">
-        <v>0.0877729717070839</v>
+        <v>0.08777297170708391</v>
       </c>
       <c r="K421" t="n" s="0">
         <v>0.04057149376520343</v>
@@ -20573,7 +20573,7 @@
         <v>0.6</v>
       </c>
       <c r="E422" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F422" t="n" s="0">
         <v>0.09871656691115191</v>
@@ -20617,7 +20617,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E423" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F423" t="n" s="0">
         <v>0.46789766793652743</v>
@@ -20661,7 +20661,7 @@
         <v>0.6</v>
       </c>
       <c r="E424" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F424" t="n" s="0">
         <v>0.08546895299766884</v>
@@ -20705,7 +20705,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E425" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F425" t="n" s="0">
         <v>0.0014481530154425465</v>
@@ -20749,7 +20749,7 @@
         <v>0.6</v>
       </c>
       <c r="E426" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F426" t="n" s="0">
         <v>0.09871656691115191</v>
@@ -20793,7 +20793,7 @@
         <v>0.6</v>
       </c>
       <c r="E427" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F427" t="n" s="0">
         <v>0.20453387997849376</v>
@@ -20837,7 +20837,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E428" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F428" t="n" s="0">
         <v>1.3332316808137445E-4</v>
@@ -20881,7 +20881,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E429" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F429" t="n" s="0">
         <v>0.6124798785537519</v>
@@ -20925,7 +20925,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E430" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F430" t="n" s="0">
         <v>0.00655084532103542</v>
@@ -20969,7 +20969,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E431" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F431" t="n" s="0">
         <v>0.003424917254567481</v>
@@ -21013,7 +21013,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E432" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F432" t="n" s="0">
         <v>0.020695027861797617</v>
@@ -21057,25 +21057,25 @@
         <v>0.8</v>
       </c>
       <c r="E433" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F433" t="n" s="0">
-        <v>6.571702882930753E-4</v>
+        <v>6.571702882930751E-4</v>
       </c>
       <c r="G433" t="n" s="0">
-        <v>0.0037320371668525597</v>
+        <v>0.003732037166852559</v>
       </c>
       <c r="H433" t="n" s="0">
-        <v>0.02681405104290123</v>
+        <v>0.026814051042901223</v>
       </c>
       <c r="I433" t="n" s="0">
-        <v>0.11557528304140492</v>
+        <v>0.1155752830414049</v>
       </c>
       <c r="J433" t="n" s="0">
-        <v>0.3205526033486478</v>
+        <v>0.32055260334864777</v>
       </c>
       <c r="K433" t="n" s="0">
-        <v>0.5326688551119005</v>
+        <v>0.5326688551119004</v>
       </c>
       <c r="L433" t="n" s="0">
         <v>6.0</v>
@@ -21101,7 +21101,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E434" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F434" t="n" s="0">
         <v>0.019426946152989403</v>
@@ -21145,7 +21145,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E435" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F435" t="n" s="0">
         <v>6.014863315311551E-4</v>
@@ -21189,7 +21189,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E436" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F436" t="n" s="0">
         <v>0.012805047204241379</v>
@@ -21204,7 +21204,7 @@
         <v>0.29031059360981387</v>
       </c>
       <c r="J436" t="n" s="0">
-        <v>0.27193604174185426</v>
+        <v>0.2719360417418542</v>
       </c>
       <c r="K436" t="n" s="0">
         <v>0.17947803540499135</v>
@@ -21213,7 +21213,7 @@
         <v>4.0</v>
       </c>
       <c r="M436" t="n" s="0">
-        <v>0.9367072636258822</v>
+        <v>0.936707263625882</v>
       </c>
       <c r="N436" t="n" s="0">
         <v>0.6508492427411977</v>
@@ -21233,7 +21233,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="E437" t="n" s="0">
-        <v>1.6285013769525452</v>
+        <v>1.6285013769525432</v>
       </c>
       <c r="F437" t="n" s="0">
         <v>8.635217661152352E-5</v>
@@ -21277,7 +21277,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E438" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F438" t="n" s="0">
         <v>0.004672929998790264</v>
@@ -21321,7 +21321,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E439" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F439" t="n" s="0">
         <v>0.0742632915784453</v>
@@ -21365,7 +21365,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E440" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F440" t="n" s="0">
         <v>0.17770016400487998</v>
@@ -21409,7 +21409,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E441" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F441" t="n" s="0">
         <v>0.006718249711244737</v>
@@ -21453,7 +21453,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E442" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F442" t="n" s="0">
         <v>0.0030380675858783317</v>
@@ -21497,7 +21497,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E443" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F443" t="n" s="0">
         <v>0.06337674067638056</v>
@@ -21541,7 +21541,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E444" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F444" t="n" s="0">
         <v>0.006925633795208135</v>
@@ -21585,7 +21585,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E445" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F445" t="n" s="0">
         <v>0.006925633795208135</v>
@@ -21629,7 +21629,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E446" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F446" t="n" s="0">
         <v>0.21286683686807134</v>
@@ -21673,7 +21673,7 @@
         <v>0.4</v>
       </c>
       <c r="E447" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F447" t="n" s="0">
         <v>0.4989337789903232</v>
@@ -21717,7 +21717,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="E448" t="n" s="0">
-        <v>1.6285013769525452</v>
+        <v>1.6285013769525432</v>
       </c>
       <c r="F448" t="n" s="0">
         <v>1.9778069273362038E-4</v>
@@ -21761,7 +21761,7 @@
         <v>0.8</v>
       </c>
       <c r="E449" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F449" t="n" s="0">
         <v>6.746838575043541E-4</v>
@@ -21805,7 +21805,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E450" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F450" t="n" s="0">
         <v>0.032513351656512084</v>
@@ -21849,7 +21849,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E451" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F451" t="n" s="0">
         <v>0.001834076317898093</v>
@@ -21893,7 +21893,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E452" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F452" t="n" s="0">
         <v>0.0382617023443849</v>
@@ -21937,7 +21937,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E453" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F453" t="n" s="0">
         <v>0.00344827428315445</v>
@@ -21981,7 +21981,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E454" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F454" t="n" s="0">
         <v>0.21122708654604444</v>
@@ -22025,7 +22025,7 @@
         <v>0.8</v>
       </c>
       <c r="E455" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F455" t="n" s="0">
         <v>0.002628786096247617</v>
@@ -22069,7 +22069,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E456" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F456" t="n" s="0">
         <v>0.0021988381938310665</v>
@@ -22113,7 +22113,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="E457" t="n" s="0">
-        <v>-2.127267481332846</v>
+        <v>-2.1272674813328494</v>
       </c>
       <c r="F457" t="n" s="0">
         <v>0.8484425195284464</v>
@@ -22157,7 +22157,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E458" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F458" t="n" s="0">
         <v>7.797113722506775E-4</v>
@@ -22201,7 +22201,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E459" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F459" t="n" s="0">
         <v>0.007527103377271677</v>
@@ -22245,7 +22245,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E460" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F460" t="n" s="0">
         <v>0.05707456455193245</v>
@@ -22289,7 +22289,7 @@
         <v>0.4</v>
       </c>
       <c r="E461" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F461" t="n" s="0">
         <v>0.7559744048506827</v>
@@ -22333,7 +22333,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E462" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F462" t="n" s="0">
         <v>0.5264494193088641</v>
@@ -22342,7 +22342,7 @@
         <v>0.3330361138923805</v>
       </c>
       <c r="H462" t="n" s="0">
-        <v>0.11161375462080658</v>
+        <v>0.11161375462080661</v>
       </c>
       <c r="I462" t="n" s="0">
         <v>0.02413467529780951</v>
@@ -22377,7 +22377,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="E463" t="n" s="0">
-        <v>-0.6249599380186897</v>
+        <v>-0.6249599380186923</v>
       </c>
       <c r="F463" t="n" s="0">
         <v>0.18717040803539844</v>
@@ -22421,7 +22421,7 @@
         <v>0.4</v>
       </c>
       <c r="E464" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F464" t="n" s="0">
         <v>0.515185304300734</v>
@@ -22465,7 +22465,7 @@
         <v>0.2</v>
       </c>
       <c r="E465" t="n" s="0">
-        <v>-2.502844367161385</v>
+        <v>-2.5028443671613885</v>
       </c>
       <c r="F465" t="n" s="0">
         <v>0.8236717919205303</v>
@@ -22509,7 +22509,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E466" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F466" t="n" s="0">
         <v>0.12689973756551207</v>
@@ -22553,7 +22553,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E467" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F467" t="n" s="0">
         <v>9.784613274711764E-4</v>
@@ -22597,7 +22597,7 @@
         <v>0.8</v>
       </c>
       <c r="E468" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F468" t="n" s="0">
         <v>0.001341282612085412</v>
@@ -22641,7 +22641,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E469" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F469" t="n" s="0">
         <v>2.7848905837605804E-4</v>
@@ -22685,7 +22685,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E470" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F470" t="n" s="0">
         <v>0.5917151253938792</v>
@@ -22729,7 +22729,7 @@
         <v>0.4</v>
       </c>
       <c r="E471" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F471" t="n" s="0">
         <v>0.5704480782237229</v>
@@ -22773,7 +22773,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E472" t="n" s="0">
-        <v>-1.751690595504307</v>
+        <v>-1.75169059550431</v>
       </c>
       <c r="F472" t="n" s="0">
         <v>0.7479151604873323</v>
@@ -22817,7 +22817,7 @@
         <v>0.4</v>
       </c>
       <c r="E473" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F473" t="n" s="0">
         <v>0.4845426789007615</v>
@@ -22861,7 +22861,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E474" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F474" t="n" s="0">
         <v>0.16899483328511525</v>
@@ -22905,7 +22905,7 @@
         <v>0.4</v>
       </c>
       <c r="E475" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F475" t="n" s="0">
         <v>0.7138462685873068</v>
@@ -22949,7 +22949,7 @@
         <v>0.8</v>
       </c>
       <c r="E476" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F476" t="n" s="0">
         <v>0.005034410256415283</v>
@@ -22993,7 +22993,7 @@
         <v>0.6</v>
       </c>
       <c r="E477" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F477" t="n" s="0">
         <v>0.05089844796810424</v>
@@ -23037,7 +23037,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E478" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F478" t="n" s="0">
         <v>0.013059248826546629</v>
@@ -23081,7 +23081,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="E479" t="n" s="0">
-        <v>1.6285013769525452</v>
+        <v>1.6285013769525432</v>
       </c>
       <c r="F479" t="n" s="0">
         <v>8.635217661152352E-5</v>
@@ -23125,7 +23125,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E480" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F480" t="n" s="0">
         <v>0.4212546006669289</v>
@@ -23169,7 +23169,7 @@
         <v>0.8</v>
       </c>
       <c r="E481" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F481" t="n" s="0">
         <v>0.010585970094072214</v>
@@ -23213,7 +23213,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E482" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F482" t="n" s="0">
         <v>0.5371554535137497</v>
@@ -23257,7 +23257,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E483" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F483" t="n" s="0">
         <v>0.0021988381938310665</v>
@@ -23301,7 +23301,7 @@
         <v>0.6</v>
       </c>
       <c r="E484" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F484" t="n" s="0">
         <v>0.22629121174992098</v>
@@ -23345,7 +23345,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E485" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F485" t="n" s="0">
         <v>0.009631460810954942</v>
@@ -23389,7 +23389,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="E486" t="n" s="0">
-        <v>1.6285013769525452</v>
+        <v>1.6285013769525432</v>
       </c>
       <c r="F486" t="n" s="0">
         <v>3.593335978981143E-5</v>
@@ -23433,7 +23433,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="E487" t="n" s="0">
-        <v>1.252924491124006</v>
+        <v>1.2529244911240038</v>
       </c>
       <c r="F487" t="n" s="0">
         <v>6.014863315311551E-4</v>
@@ -23477,7 +23477,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E488" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F488" t="n" s="0">
         <v>0.03914483314327393</v>
@@ -23521,7 +23521,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E489" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F489" t="n" s="0">
         <v>0.007590593764877557</v>
@@ -23565,7 +23565,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="E490" t="n" s="0">
-        <v>0.5017707194669274</v>
+        <v>0.5017707194669251</v>
       </c>
       <c r="F490" t="n" s="0">
         <v>0.031373459710251336</v>
@@ -23609,7 +23609,7 @@
         <v>0.6</v>
       </c>
       <c r="E491" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F491" t="n" s="0">
         <v>0.15464936622716519</v>
@@ -23653,7 +23653,7 @@
         <v>0.4</v>
       </c>
       <c r="E492" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F492" t="n" s="0">
         <v>0.517306047218369</v>
@@ -23697,7 +23697,7 @@
         <v>0.8</v>
       </c>
       <c r="E493" t="n" s="0">
-        <v>0.8773476052954671</v>
+        <v>0.8773476052954648</v>
       </c>
       <c r="F493" t="n" s="0">
         <v>3.281437103385737E-4</v>
@@ -23741,7 +23741,7 @@
         <v>0.6</v>
       </c>
       <c r="E494" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F494" t="n" s="0">
         <v>0.03358896845960963</v>
@@ -23785,7 +23785,7 @@
         <v>0.6</v>
       </c>
       <c r="E495" t="n" s="0">
-        <v>-0.24938305219015064</v>
+        <v>-0.24938305219015322</v>
       </c>
       <c r="F495" t="n" s="0">
         <v>0.17392625260095917</v>
@@ -23829,7 +23829,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E496" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F496" t="n" s="0">
         <v>0.5371554535137497</v>
@@ -23873,7 +23873,7 @@
         <v>0.4</v>
       </c>
       <c r="E497" t="n" s="0">
-        <v>-1.3761137096757676</v>
+        <v>-1.3761137096757705</v>
       </c>
       <c r="F497" t="n" s="0">
         <v>0.6128372459623322</v>
@@ -23917,7 +23917,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E498" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F498" t="n" s="0">
         <v>0.3708252553290127</v>
@@ -23961,7 +23961,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E499" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F499" t="n" s="0">
         <v>0.2459478025098198</v>
@@ -24005,7 +24005,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E500" t="n" s="0">
-        <v>0.12619383363838838</v>
+        <v>0.1261938336383859</v>
       </c>
       <c r="F500" t="n" s="0">
         <v>0.05707456455193245</v>
@@ -24049,7 +24049,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="E501" t="n" s="0">
-        <v>-1.0005368238472288</v>
+        <v>-1.0005368238472314</v>
       </c>
       <c r="F501" t="n" s="0">
         <v>0.6296472983402773</v>
@@ -24067,7 +24067,7 @@
         <v>3.135873233474797E-4</v>
       </c>
       <c r="K501" t="n" s="0">
-        <v>3.9594920041383845E-5</v>
+        <v>3.959492004138399E-5</v>
       </c>
       <c r="L501" t="n" s="0">
         <v>1.0</v>
